--- a/academias/Soporte y Mantenimiento a Equipo de Cómputo - Estadisticos 20211.xlsx
+++ b/academias/Soporte y Mantenimiento a Equipo de Cómputo - Estadisticos 20211.xlsx
@@ -527,22 +527,25 @@
         <v>33</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>60.61</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>39.39</v>
+      </c>
+      <c r="I3">
+        <v>5.8</v>
       </c>
       <c r="J3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,22 +562,25 @@
         <v>33</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>57.58</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>42.42</v>
+      </c>
+      <c r="I4">
+        <v>6.4</v>
       </c>
       <c r="J4">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -893,22 +899,25 @@
         <v>33</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>60.61</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>39.39</v>
+      </c>
+      <c r="I3">
+        <v>5.8</v>
       </c>
       <c r="J3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -925,22 +934,25 @@
         <v>33</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F4">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>57.58</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>42.42</v>
+      </c>
+      <c r="I4">
+        <v>6.4</v>
       </c>
       <c r="J4">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
